--- a/Ethernet_Board/Ethernet_Board - Fabrication/WDY_Ethernet_Board_Part_List.xlsx
+++ b/Ethernet_Board/Ethernet_Board - Fabrication/WDY_Ethernet_Board_Part_List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="PdG" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Value</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Diode Schottky 40V 3A Surface Mount SMBflat</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Part List</t>
   </si>
 </sst>
 </file>
@@ -388,18 +394,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F14" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:F14" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F14"/>
   <sortState ref="A2:F14">
     <sortCondition ref="E1:E14"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Qty" dataDxfId="7"/>
-    <tableColumn id="2" name="Value" dataDxfId="6"/>
-    <tableColumn id="3" name="Device" dataDxfId="5"/>
-    <tableColumn id="4" name="Package" dataDxfId="4"/>
-    <tableColumn id="5" name="Parts" dataDxfId="3"/>
-    <tableColumn id="6" name="Description" dataDxfId="2"/>
+    <tableColumn id="1" name="Qty" dataDxfId="5"/>
+    <tableColumn id="2" name="Value" dataDxfId="4"/>
+    <tableColumn id="3" name="Device" dataDxfId="3"/>
+    <tableColumn id="4" name="Package" dataDxfId="2"/>
+    <tableColumn id="5" name="Parts" dataDxfId="1"/>
+    <tableColumn id="6" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -702,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:B10"/>
+  <dimension ref="A6:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,26 +738,34 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3">
-        <f ca="1">TODAY()</f>
-        <v>42747</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <f ca="1">TODAY()</f>
+        <v>42753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -768,8 +782,8 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
